--- a/APIs_DOCS.xlsx
+++ b/APIs_DOCS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\Sprints\BOOTCAMP WAVE10\Projects\Individuals\LCD_KPD_nonblocking\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986F485F-59A4-42EE-A0CD-8CB00217BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,158 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+  <si>
+    <t>Function name</t>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>KEYPAD</t>
+  </si>
+  <si>
+    <t>void KPD_init(void);</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>INPUT/OUTPUT</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>It is the keypad initialization function that defined the directions and the initial values of keypad pins</t>
+  </si>
+  <si>
+    <t>uint8_t KPD_u8GetPressedKey(uint8_t* KEY);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>local_u8Val</t>
+  </si>
+  <si>
+    <t>unsigned char</t>
+  </si>
+  <si>
+    <t>I pass the address of that variable which declared in app to be able to get the press key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KEY</t>
+  </si>
+  <si>
+    <t>pointer to unsigned char</t>
+  </si>
+  <si>
+    <t>It is a variable which made a dereferencing it to save the pressed key</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>It is a function that return the number of pressed button</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>static void TwintyMiliSecDelay(void);</t>
+  </si>
+  <si>
+    <t>local Function</t>
+  </si>
+  <si>
+    <t>Control the flag status which indicates that the dalay finished or not</t>
+  </si>
+  <si>
+    <t>static uint8_t KPD_StatusRead(void)</t>
+  </si>
+  <si>
+    <t>It is a function that I checked to know the delay has finished or not</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>uint8_t LCD_init(void);</t>
+  </si>
+  <si>
+    <t>It is the LCD initialization function that defined the directions and the initial values of LCD pins. It also run the LCD on 4 bit mode and return the status of it has finished or not.</t>
+  </si>
+  <si>
+    <t>void LCD_WriteNumber(uint32_t u32_NUM);</t>
+  </si>
+  <si>
+    <t>u32_NUM</t>
+  </si>
+  <si>
+    <t>unsigned long int</t>
+  </si>
+  <si>
+    <t>It is the number I want to display on LCD</t>
+  </si>
+  <si>
+    <t>static void FortyMiliSecDelay(void);</t>
+  </si>
+  <si>
+    <t>static uint8_t LCD_StatusRead(void)</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>It is a variable that replaced by tha command data sent to LCD</t>
+  </si>
+  <si>
+    <t>It is a function that send command to LCD</t>
+  </si>
+  <si>
+    <t>void LCD_sendComd(uint8_t u8_Data);</t>
+  </si>
+  <si>
+    <t>void LCD_sendData(uint8_t u8_Data);</t>
+  </si>
+  <si>
+    <t>It is a variable that replaced by the data I want to display on LCD</t>
+  </si>
+  <si>
+    <t>It is a function that send the data I want to display on LCD</t>
+  </si>
+  <si>
+    <t>void LCD_sendStrData(uint8_t* pu8_Data);</t>
+  </si>
+  <si>
+    <t>pu8_Data</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,18 +183,102 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -49,8 +288,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +618,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="0.6640625" customWidth="1"/>
+    <col min="12" max="12" width="31.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="0.6640625" customWidth="1"/>
+    <col min="16" max="16" width="39.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="0.6640625" customWidth="1"/>
+    <col min="20" max="20" width="43.21875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" customWidth="1"/>
+    <col min="23" max="23" width="0.6640625" customWidth="1"/>
+    <col min="24" max="24" width="43.5546875" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" customWidth="1"/>
+    <col min="26" max="26" width="26.88671875" customWidth="1"/>
+    <col min="27" max="27" width="0.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="B12:Z12"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>